--- a/app/data/maestros/maestros.xlsx
+++ b/app/data/maestros/maestros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SergioRetuertoGutier\Documents\Projects\attsf\attsf-ordenes-de-trabajo\app\data\maestros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD24E384-0763-43A6-9924-19DD825CE746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AD8156-EC12-4261-8EB9-1963751904FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9960" yWindow="1620" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="camion" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="540">
   <si>
     <t>id_camion</t>
   </si>
@@ -1275,51 +1275,12 @@
     <t>precio</t>
   </si>
   <si>
-    <t>Aceite motor</t>
-  </si>
-  <si>
     <t>Anticongelante</t>
   </si>
   <si>
-    <t>Liquido de embrague</t>
-  </si>
-  <si>
-    <t>Liquido direccion</t>
-  </si>
-  <si>
-    <t>Liquido de freno</t>
-  </si>
-  <si>
-    <t>Agua destilada</t>
-  </si>
-  <si>
-    <t>Aceite caja cambios</t>
-  </si>
-  <si>
-    <t>Acido baterias</t>
-  </si>
-  <si>
     <t>Grasa</t>
   </si>
   <si>
-    <t>Filtro de aceite</t>
-  </si>
-  <si>
-    <t>Filtro de aire</t>
-  </si>
-  <si>
-    <t>Filtro de gasoil</t>
-  </si>
-  <si>
-    <t>Filtro hidraulico</t>
-  </si>
-  <si>
-    <t>Filtro separador de gasoil</t>
-  </si>
-  <si>
-    <t>Pre-filtro de gasoil</t>
-  </si>
-  <si>
     <t>Lamparas</t>
   </si>
   <si>
@@ -1401,9 +1362,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>Extras</t>
-  </si>
-  <si>
     <t>tipo_taller</t>
   </si>
   <si>
@@ -1696,6 +1654,15 @@
   </si>
   <si>
     <t>Pasta</t>
+  </si>
+  <si>
+    <t>Mecanica</t>
+  </si>
+  <si>
+    <t>Electricidad</t>
+  </si>
+  <si>
+    <t>Enseres</t>
   </si>
 </sst>
 </file>
@@ -1703,7 +1670,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -2203,7 +2170,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
@@ -8335,8 +8302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C359"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8348,13 +8315,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -8362,10 +8329,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C2" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -8374,10 +8341,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="C3" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -10525,7 +10492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -10541,10 +10508,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -10552,10 +10519,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="C2" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -10564,10 +10531,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="C3" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -10576,10 +10543,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="C4" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -10588,10 +10555,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="C5" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -10600,10 +10567,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="C6" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -12751,16 +12718,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -12768,7 +12735,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C2" s="3">
         <v>277321</v>
@@ -12777,7 +12744,7 @@
         <v>-801831</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -12795,7 +12762,7 @@
         <v>-786977</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -12804,7 +12771,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="C4" s="3">
         <v>275064</v>
@@ -12813,7 +12780,7 @@
         <v>-800828</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -12822,7 +12789,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="C5" s="3">
         <v>268257</v>
@@ -12831,7 +12798,7 @@
         <v>-686468</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -12840,7 +12807,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="C6" s="3">
         <v>274951</v>
@@ -12849,7 +12816,7 @@
         <v>-782654</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -12858,7 +12825,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="C7" s="3">
         <v>27482</v>
@@ -12867,7 +12834,7 @@
         <v>-809825</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -12876,7 +12843,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -14994,14 +14961,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G359"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
@@ -15011,25 +14978,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -15043,7 +15010,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -15058,7 +15025,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -15088,7 +15055,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -15103,7 +15070,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -17645,7 +17612,7 @@
         <v>331</v>
       </c>
       <c r="C26" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="D26" t="s">
         <v>303</v>
@@ -17660,7 +17627,7 @@
         <v>332</v>
       </c>
       <c r="C27" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="D27" t="s">
         <v>303</v>
@@ -17675,7 +17642,7 @@
         <v>333</v>
       </c>
       <c r="C28" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="D28" t="s">
         <v>303</v>
@@ -17705,7 +17672,7 @@
         <v>336</v>
       </c>
       <c r="C30" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="D30" t="s">
         <v>337</v>
@@ -17720,7 +17687,7 @@
         <v>338</v>
       </c>
       <c r="C31" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="D31" t="s">
         <v>337</v>
@@ -17735,7 +17702,7 @@
         <v>339</v>
       </c>
       <c r="C32" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="D32" t="s">
         <v>337</v>
@@ -17750,7 +17717,7 @@
         <v>340</v>
       </c>
       <c r="C33" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="D33" t="s">
         <v>337</v>
@@ -17765,7 +17732,7 @@
         <v>341</v>
       </c>
       <c r="C34" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="D34" t="s">
         <v>337</v>
@@ -18245,7 +18212,7 @@
         <v>374</v>
       </c>
       <c r="C66" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="D66" t="s">
         <v>337</v>
@@ -18260,7 +18227,7 @@
         <v>375</v>
       </c>
       <c r="C67" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="D67" t="s">
         <v>337</v>
@@ -18275,7 +18242,7 @@
         <v>376</v>
       </c>
       <c r="C68" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="D68" t="s">
         <v>337</v>
@@ -18290,7 +18257,7 @@
         <v>377</v>
       </c>
       <c r="C69" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="D69" t="s">
         <v>337</v>
@@ -18305,7 +18272,7 @@
         <v>378</v>
       </c>
       <c r="C70" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="D70" t="s">
         <v>337</v>
@@ -18320,7 +18287,7 @@
         <v>379</v>
       </c>
       <c r="C71" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="D71" t="s">
         <v>337</v>
@@ -18335,7 +18302,7 @@
         <v>380</v>
       </c>
       <c r="C72" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="D72" t="s">
         <v>337</v>
@@ -18350,7 +18317,7 @@
         <v>381</v>
       </c>
       <c r="C73" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="D73" t="s">
         <v>337</v>
@@ -18365,7 +18332,7 @@
         <v>382</v>
       </c>
       <c r="C74" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="D74" t="s">
         <v>337</v>
@@ -18380,7 +18347,7 @@
         <v>383</v>
       </c>
       <c r="C75" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="D75" t="s">
         <v>337</v>
@@ -18395,7 +18362,7 @@
         <v>384</v>
       </c>
       <c r="C76" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="D76" t="s">
         <v>337</v>
@@ -18425,7 +18392,7 @@
         <v>388</v>
       </c>
       <c r="C78" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="D78" t="s">
         <v>387</v>
@@ -18440,7 +18407,7 @@
         <v>389</v>
       </c>
       <c r="C79" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="D79" t="s">
         <v>387</v>
@@ -18455,7 +18422,7 @@
         <v>390</v>
       </c>
       <c r="C80" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="D80" t="s">
         <v>387</v>
@@ -18470,7 +18437,7 @@
         <v>391</v>
       </c>
       <c r="C81" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="D81" t="s">
         <v>387</v>
@@ -18485,7 +18452,7 @@
         <v>392</v>
       </c>
       <c r="C82" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="D82" t="s">
         <v>387</v>
@@ -20289,7 +20256,7 @@
   <dimension ref="A1:B135"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20299,7 +20266,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>275</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -20405,15 +20372,21 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -21149,7 +21122,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C359"/>
+  <dimension ref="A1:C344"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -21178,7 +21151,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -21187,7 +21160,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -21196,7 +21169,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -21205,7 +21178,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -21214,7 +21187,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -21223,7 +21196,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>415</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -21232,7 +21205,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>416</v>
+        <v>467</v>
+      </c>
+      <c r="C8">
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -21241,7 +21217,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>417</v>
+        <v>468</v>
+      </c>
+      <c r="C9">
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -21250,7 +21229,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>418</v>
+        <v>469</v>
+      </c>
+      <c r="C10">
+        <v>650</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -21259,7 +21241,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>419</v>
+        <v>470</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -21268,7 +21253,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>420</v>
+        <v>410</v>
+      </c>
+      <c r="C12">
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -21277,7 +21265,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>421</v>
+        <v>411</v>
+      </c>
+      <c r="C13">
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -21286,7 +21277,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>422</v>
+        <v>471</v>
+      </c>
+      <c r="C14">
+        <v>800</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -21295,7 +21289,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>423</v>
+        <v>472</v>
+      </c>
+      <c r="C15">
+        <v>800</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -21304,7 +21301,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>424</v>
+        <v>473</v>
+      </c>
+      <c r="C16">
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -21313,7 +21313,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>279</v>
+        <v>474</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1550</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -21322,7 +21325,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>425</v>
+        <v>475</v>
+      </c>
+      <c r="C18" s="3">
+        <v>10500</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -21331,7 +21337,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>426</v>
+        <v>476</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1550</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -21340,7 +21349,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>427</v>
+        <v>477</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1300</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -21349,7 +21361,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>428</v>
+        <v>478</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3400</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -21358,7 +21373,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>429</v>
+        <v>479</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1300</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -21367,10 +21385,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>481</v>
-      </c>
-      <c r="C23">
-        <v>157</v>
+        <v>480</v>
+      </c>
+      <c r="C23" s="3">
+        <v>7000</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -21379,10 +21397,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>482</v>
-      </c>
-      <c r="C24">
-        <v>262</v>
+        <v>481</v>
+      </c>
+      <c r="C24" s="3">
+        <v>11000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -21391,10 +21409,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>483</v>
-      </c>
-      <c r="C25">
-        <v>650</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -21403,10 +21418,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>484</v>
-      </c>
-      <c r="C26">
-        <v>100</v>
+        <v>483</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1500</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -21415,10 +21430,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>411</v>
-      </c>
-      <c r="C27">
-        <v>106</v>
+        <v>484</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -21427,10 +21439,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>418</v>
-      </c>
-      <c r="C28">
-        <v>600</v>
+        <v>485</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -21439,10 +21448,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>485</v>
-      </c>
-      <c r="C29">
-        <v>800</v>
+        <v>486</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -21451,10 +21457,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C30">
-        <v>800</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -21463,10 +21469,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C31">
-        <v>350</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -21475,10 +21481,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>488</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1550</v>
+        <v>489</v>
+      </c>
+      <c r="C32">
+        <v>62000</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -21487,10 +21493,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>489</v>
-      </c>
-      <c r="C33" s="3">
-        <v>10500</v>
+        <v>490</v>
+      </c>
+      <c r="C33">
+        <v>58000</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -21499,10 +21505,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>490</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1550</v>
+        <v>491</v>
+      </c>
+      <c r="C34">
+        <v>60000</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -21511,10 +21517,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>491</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1300</v>
+        <v>492</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -21523,10 +21526,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>492</v>
-      </c>
-      <c r="C36" s="3">
-        <v>3400</v>
+        <v>493</v>
+      </c>
+      <c r="C36">
+        <v>55000</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -21535,10 +21538,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>493</v>
-      </c>
-      <c r="C37" s="3">
-        <v>1300</v>
+        <v>494</v>
+      </c>
+      <c r="C37">
+        <v>30000</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -21547,10 +21550,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>494</v>
-      </c>
-      <c r="C38" s="3">
-        <v>7000</v>
+        <v>495</v>
+      </c>
+      <c r="C38">
+        <v>14000</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -21559,10 +21562,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>495</v>
-      </c>
-      <c r="C39" s="3">
-        <v>11000</v>
+        <v>496</v>
+      </c>
+      <c r="C39">
+        <v>16000</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -21571,7 +21574,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>496</v>
+        <v>497</v>
+      </c>
+      <c r="C40">
+        <v>9000</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -21580,10 +21586,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>497</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1500</v>
+        <v>498</v>
+      </c>
+      <c r="C41">
+        <v>10000</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -21592,7 +21598,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>498</v>
+        <v>499</v>
+      </c>
+      <c r="C42" s="3">
+        <v>95000</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -21601,7 +21610,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -21610,7 +21619,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>500</v>
+        <v>501</v>
+      </c>
+      <c r="C44" s="3">
+        <v>30000</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -21619,10 +21631,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>501</v>
-      </c>
-      <c r="C45">
-        <v>3000</v>
+        <v>502</v>
+      </c>
+      <c r="C45" s="3">
+        <v>20000</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -21631,10 +21643,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>502</v>
-      </c>
-      <c r="C46">
-        <v>3000</v>
+        <v>503</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -21643,10 +21652,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>503</v>
-      </c>
-      <c r="C47">
-        <v>62000</v>
+        <v>504</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -21655,10 +21661,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>504</v>
-      </c>
-      <c r="C48">
-        <v>58000</v>
+        <v>505</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -21667,10 +21670,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>505</v>
-      </c>
-      <c r="C49">
-        <v>60000</v>
+        <v>506</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -21679,7 +21679,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>506</v>
+        <v>507</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1000</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -21688,10 +21691,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>507</v>
-      </c>
-      <c r="C51">
-        <v>55000</v>
+        <v>508</v>
+      </c>
+      <c r="C51" s="3">
+        <v>12000</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -21700,10 +21703,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>508</v>
-      </c>
-      <c r="C52">
-        <v>30000</v>
+        <v>509</v>
+      </c>
+      <c r="C52" s="3">
+        <v>95000</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -21712,10 +21715,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>509</v>
-      </c>
-      <c r="C53">
-        <v>14000</v>
+        <v>510</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -21724,10 +21724,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>510</v>
-      </c>
-      <c r="C54">
-        <v>16000</v>
+        <v>511</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -21736,10 +21733,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>511</v>
-      </c>
-      <c r="C55">
-        <v>9000</v>
+        <v>512</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -21748,10 +21742,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>512</v>
-      </c>
-      <c r="C56">
-        <v>10000</v>
+        <v>513</v>
+      </c>
+      <c r="C56" s="3">
+        <v>15000</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -21760,10 +21754,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C57" s="3">
-        <v>95000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -21772,7 +21766,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -21781,10 +21775,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>515</v>
-      </c>
-      <c r="C59" s="3">
-        <v>30000</v>
+        <v>516</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -21793,10 +21784,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C60" s="3">
-        <v>20000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -21805,7 +21796,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>517</v>
+        <v>518</v>
+      </c>
+      <c r="C61" s="3">
+        <v>12000</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -21814,7 +21808,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>518</v>
+        <v>519</v>
+      </c>
+      <c r="C62">
+        <v>750</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -21823,7 +21820,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>519</v>
+        <v>520</v>
+      </c>
+      <c r="C63">
+        <v>900</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -21832,7 +21832,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>520</v>
+        <v>521</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1500</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -21841,10 +21844,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C65" s="3">
-        <v>1000</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -21853,10 +21856,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C66" s="3">
-        <v>12000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -21865,10 +21868,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C67" s="3">
-        <v>95000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -21877,7 +21880,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>524</v>
+        <v>525</v>
+      </c>
+      <c r="C68" s="3">
+        <v>150000</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -21886,7 +21892,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>525</v>
+        <v>526</v>
+      </c>
+      <c r="C69">
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -21895,7 +21904,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>526</v>
+        <v>527</v>
+      </c>
+      <c r="C70" s="3">
+        <v>5000</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -21904,10 +21916,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C71" s="3">
-        <v>15000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -21916,10 +21928,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C72" s="3">
-        <v>8000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -21928,7 +21940,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>529</v>
+        <v>530</v>
+      </c>
+      <c r="C73" s="3">
+        <v>10000</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -21937,7 +21952,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>530</v>
+        <v>531</v>
+      </c>
+      <c r="C74" s="3">
+        <v>12000</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -21946,10 +21964,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C75" s="3">
-        <v>1000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -21958,10 +21976,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C76" s="3">
-        <v>12000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -21970,10 +21988,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>533</v>
-      </c>
-      <c r="C77">
-        <v>750</v>
+        <v>534</v>
+      </c>
+      <c r="C77" s="3">
+        <v>1250</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -21982,10 +22000,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C78">
-        <v>900</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -21994,199 +22012,109 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>535</v>
-      </c>
-      <c r="C79" s="3">
-        <v>1500</v>
+        <v>536</v>
+      </c>
+      <c r="C79">
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>536</v>
-      </c>
-      <c r="C80" s="3">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>537</v>
-      </c>
-      <c r="C81" s="3">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>538</v>
-      </c>
-      <c r="C82" s="3">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>539</v>
-      </c>
-      <c r="C83" s="3">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>540</v>
-      </c>
-      <c r="C84">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>541</v>
-      </c>
-      <c r="C85" s="3">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>542</v>
-      </c>
-      <c r="C86" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>543</v>
-      </c>
-      <c r="C87" s="3">
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>544</v>
-      </c>
-      <c r="C88" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>545</v>
-      </c>
-      <c r="C89" s="3">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>546</v>
-      </c>
-      <c r="C90" s="3">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>547</v>
-      </c>
-      <c r="C91" s="3">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>548</v>
-      </c>
-      <c r="C92" s="3">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>549</v>
-      </c>
-      <c r="C93">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>550</v>
-      </c>
-      <c r="C94">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -23550,7 +23478,7 @@
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="str">
-        <f t="shared" ref="A323:A359" si="5">IF(NOT(ISBLANK(B323)),A322+1, "")</f>
+        <f t="shared" ref="A323:A344" si="5">IF(NOT(ISBLANK(B323)),A322+1, "")</f>
         <v/>
       </c>
     </row>
@@ -23676,96 +23604,6 @@
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -24642,10 +24480,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -24653,7 +24491,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -24662,7 +24500,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -26811,7 +26649,7 @@
   <dimension ref="A1:C359"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26823,13 +26661,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -26837,10 +26675,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="C2" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -26849,10 +26687,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="C3" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -26861,10 +26699,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="C4" t="s">
-        <v>452</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">

--- a/app/data/maestros/maestros.xlsx
+++ b/app/data/maestros/maestros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SergioRetuertoGutier\Documents\Projects\attsf\attsf-ordenes-de-trabajo\app\data\maestros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AD8156-EC12-4261-8EB9-1963751904FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F07A7B-93DD-44FF-BA5C-36768ED365B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="1620" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="camion" sheetId="1" r:id="rId1"/>
@@ -4066,8 +4066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q172"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8302,7 +8302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -14962,7 +14962,7 @@
   <dimension ref="A1:G359"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
